--- a/Scripts Descriptions.xlsx
+++ b/Scripts Descriptions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mark-Windows (Shared)\Scripts\compressed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Scripts\compressed\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025967AE-F3E0-433F-BEA7-EF0EBCE442EA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>refreshAll</t>
   </si>
@@ -462,6 +463,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - can't connect to Messages/Jabber</t>
+  </si>
+  <si>
+    <t>Shut Ethernet Interface</t>
+  </si>
+  <si>
+    <t>No Shut Ethernet Interface</t>
+  </si>
+  <si>
+    <t>All Network related issues</t>
+  </si>
+  <si>
+    <t>networkReset_fix</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,6 +1986,80 @@
       </c>
       <c r="C116" s="24"/>
     </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="19"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="19"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" s="19"/>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11"/>
+      <c r="B126" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
